--- a/Assets/Scripts/1.Abilities/Resources/Documents/OneAbility/OneAbilityInfo.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/OneAbility/OneAbilityInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\OneAbility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F57E0D1-551C-4904-B0A7-58031D4CB5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53C3BFB-8013-45EB-99F1-AC4CC61930E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
+    <workbookView xWindow="2460" yWindow="2460" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
   </bookViews>
   <sheets>
     <sheet name="AreaAbility" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Motivation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,7 +452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B2E12A-5366-4C7A-9667-41338698090D}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -800,96 +804,99 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C104C1DD-5DC9-4B96-B8AF-A07D98126122}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Scripts/1.Abilities/Resources/Documents/OneAbility/OneAbilityInfo.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/OneAbility/OneAbilityInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\OneAbility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Resources\Documents\OneAbility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53C3BFB-8013-45EB-99F1-AC4CC61930E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F265E03-15E8-4A34-96E5-22AB3AF334B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="28800" windowHeight="15345" activeTab="3" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
+    <workbookView xWindow="7460" yWindow="2610" windowWidth="28800" windowHeight="15460" activeTab="6" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
   </bookViews>
   <sheets>
     <sheet name="AreaAbility" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>Motivation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,20 +454,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B2E12A-5366-4C7A-9667-41338698090D}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="E6" sqref="E6:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,116 +478,119 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D2" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D17" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.45">
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="24" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="M24" t="s">
+      <c r="G17" s="1"/>
+    </row>
+    <row r="24" spans="5:14" x14ac:dyDescent="0.45">
+      <c r="N24" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:G17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -591,20 +599,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BC0EF5-FF8C-48D0-85D0-A5ABB4EF764C}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,429 +623,8 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965D1BFB-24F6-48A0-A008-1A4B0B7A7FCD}">
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C104C1DD-5DC9-4B96-B8AF-A07D98126122}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC57950A-9E23-4278-A211-D37973D388E6}">
-  <dimension ref="A1:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-  </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EF9C77-F5E5-4253-B080-E4A4AF2B33F0}">
-  <dimension ref="A1:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1044,57 +632,51 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="E7:G7"/>
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
@@ -1107,21 +689,466 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965D1BFB-24F6-48A0-A008-1A4B0B7A7FCD}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C104C1DD-5DC9-4B96-B8AF-A07D98126122}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC57950A-9E23-4278-A211-D37973D388E6}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E11:G11"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EF9C77-F5E5-4253-B080-E4A4AF2B33F0}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F6:H6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C901BB9-BBE8-4E57-82B3-8A4F764FD54A}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1131,51 +1158,54 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D2" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D3" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D4" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D6" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D7" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Scripts/1.Abilities/Resources/Documents/OneAbility/OneAbilityInfo.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/OneAbility/OneAbilityInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Resources\Documents\OneAbility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\OneAbility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F265E03-15E8-4A34-96E5-22AB3AF334B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B577DC7-16FB-49EC-8518-9B9E20603A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="2610" windowWidth="28800" windowHeight="15460" activeTab="6" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
+    <workbookView xWindow="3495" yWindow="3495" windowWidth="28800" windowHeight="15345" activeTab="6" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
   </bookViews>
   <sheets>
     <sheet name="AreaAbility" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="15">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Chance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyTargetCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsRandom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ApplyTargetType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,21 +466,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B2E12A-5366-4C7A-9667-41338698090D}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:G6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,116 +493,122 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.45">
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="7:16" x14ac:dyDescent="0.3">
       <c r="G17" s="1"/>
-    </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.45">
-      <c r="N24" t="s">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="24" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="P24" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -599,21 +617,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51BC0EF5-FF8C-48D0-85D0-A5ABB4EF764C}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,63 +644,69 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -691,15 +715,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965D1BFB-24F6-48A0-A008-1A4B0B7A7FCD}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,105 +736,111 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -819,15 +849,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C104C1DD-5DC9-4B96-B8AF-A07D98126122}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -840,81 +870,87 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -923,21 +959,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC57950A-9E23-4278-A211-D37973D388E6}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -950,81 +986,87 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1033,22 +1075,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62EF9C77-F5E5-4253-B080-E4A4AF2B33F0}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="5" max="7" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1064,69 +1106,80 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1135,20 +1188,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C901BB9-BBE8-4E57-82B3-8A4F764FD54A}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1161,51 +1214,57 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Scripts/1.Abilities/Resources/Documents/OneAbility/OneAbilityInfo.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/OneAbility/OneAbilityInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Resources\Documents\OneAbility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A4DDD3-ABE2-4CA9-849C-ACCB3FDC6B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C4221-B840-41F5-AB39-A4187A412846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7460" yWindow="2610" windowWidth="28800" windowHeight="15460" activeTab="6" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
+    <workbookView xWindow="8910" yWindow="5410" windowWidth="28800" windowHeight="15460" activeTab="3" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
   </bookViews>
   <sheets>
     <sheet name="AreaAbility" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="15">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Motivation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Chance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -99,10 +95,6 @@
   </si>
   <si>
     <t>ApplyTargetType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MotivationStat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,19 +488,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -651,19 +643,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -746,19 +738,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -867,15 +859,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C104C1DD-5DC9-4B96-B8AF-A07D98126122}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -883,98 +875,92 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I2" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I3" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I4" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I5" s="1"/>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I6" s="1"/>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I7" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I8" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I9" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I10" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I11" s="1"/>
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="I12" s="1"/>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1006,19 +992,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -1127,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>7</v>
@@ -1136,13 +1122,13 @@
         <v>8</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
@@ -1197,7 +1183,7 @@
     </row>
     <row r="25" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1222,7 +1208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C901BB9-BBE8-4E57-82B3-8A4F764FD54A}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1242,19 +1228,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>

--- a/Assets/Scripts/1.Abilities/Resources/Documents/OneAbility/OneAbilityInfo.xlsx
+++ b/Assets/Scripts/1.Abilities/Resources/Documents/OneAbility/OneAbilityInfo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BackUp 2023-0324\Unity Portfolios\BoilerPlate\BP\Assets\Scripts\1.Abilities\Resources\Documents\OneAbility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\myWorks\Unity-BolierPlate-Codes\Assets\Scripts\1.Abilities\Resources\Documents\OneAbility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C4221-B840-41F5-AB39-A4187A412846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78078791-E661-48D0-9B70-BF28EB99D397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8910" yWindow="5410" windowWidth="28800" windowHeight="15460" activeTab="3" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
+    <workbookView xWindow="3495" yWindow="3495" windowWidth="28800" windowHeight="15345" activeTab="4" xr2:uid="{4F09BE30-3FCF-46F0-A93C-3CEDA836A106}"/>
   </bookViews>
   <sheets>
     <sheet name="AreaAbility" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,16 +471,16 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.83203125" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,98 +508,93 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="8:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="8:17" x14ac:dyDescent="0.3">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="24" spans="8:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="8:17" x14ac:dyDescent="0.3">
       <c r="Q24" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="H2:J2"/>
@@ -612,6 +607,11 @@
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -626,16 +626,16 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -663,42 +663,42 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -728,9 +728,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -758,83 +758,89 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="H13:J13"/>
     <mergeCell ref="H14:J14"/>
     <mergeCell ref="H15:J15"/>
@@ -845,12 +851,6 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -861,13 +861,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C104C1DD-5DC9-4B96-B8AF-A07D98126122}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,57 +892,57 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -969,22 +969,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC57950A-9E23-4278-A211-D37973D388E6}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.33203125" customWidth="1"/>
+    <col min="4" max="6" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -995,92 +994,89 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1095,7 +1091,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -1105,7 +1101,7 @@
     <col min="6" max="8" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1136,52 +1132,52 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
     </row>
-    <row r="25" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J25" t="s">
         <v>13</v>
       </c>
@@ -1212,15 +1208,15 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1248,32 +1244,32 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
